--- a/byhand/dvg_reo.xlsx
+++ b/byhand/dvg_reo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEC73B3-9801-44FB-980B-FD0F0D2C94A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76FF3F7-E037-4824-A4C7-B07CCA994A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3543,8 +3543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A63A6F5-31AB-4798-A958-181B73F691FF}">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/byhand/dvg_reo.xlsx
+++ b/byhand/dvg_reo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FF72E-FC1A-4029-B5D4-D87F5F81CCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BE50D-129E-4367-BC1E-253AD2D9EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A63A6F5-31AB-4798-A958-181B73F691FF}">
   <dimension ref="A1:N153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F145" workbookViewId="0">
-      <selection activeCell="N157" sqref="N157"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6475,59 +6475,63 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>1041</v>
+        <v>371</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>1042</v>
+        <v>373</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1043</v>
+        <v>374</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1044</v>
+        <v>375</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>64</v>
+        <v>372</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J67" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>376</v>
+      </c>
       <c r="K67" s="2">
-        <v>1978</v>
+        <v>1992</v>
       </c>
       <c r="L67" s="3">
-        <v>305000</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>242000</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="N67">
         <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>372</v>
@@ -6542,16 +6546,16 @@
         <v>145</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>376</v>
+        <v>425</v>
       </c>
       <c r="K68" s="2">
-        <v>1992</v>
+        <v>1978</v>
       </c>
       <c r="L68" s="3">
-        <v>242000</v>
+        <v>295000</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="N68">
         <v>100</v>
@@ -6559,22 +6563,22 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>422</v>
+        <v>512</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>513</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>423</v>
+        <v>514</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>424</v>
+        <v>515</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>8</v>
@@ -6586,16 +6590,16 @@
         <v>145</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="K69" s="2">
-        <v>1978</v>
+        <v>2000</v>
       </c>
       <c r="L69" s="3">
-        <v>295000</v>
+        <v>950000</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>426</v>
+        <v>517</v>
       </c>
       <c r="N69">
         <v>100</v>
@@ -6603,43 +6607,43 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>512</v>
+        <v>217</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>513</v>
+        <v>218</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>514</v>
+        <v>219</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>515</v>
+        <v>216</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>516</v>
+        <v>220</v>
       </c>
       <c r="K70" s="2">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="L70" s="3">
-        <v>950000</v>
+        <v>240000</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>517</v>
+        <v>221</v>
       </c>
       <c r="N70">
         <v>100</v>
@@ -6647,43 +6651,43 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>217</v>
+        <v>855</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>218</v>
+        <v>856</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>219</v>
+        <v>857</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>216</v>
+        <v>858</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>220</v>
+        <v>859</v>
       </c>
       <c r="K71" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="L71" s="3">
-        <v>240000</v>
+        <v>100000</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>221</v>
+        <v>860</v>
       </c>
       <c r="N71">
         <v>100</v>
@@ -6691,43 +6695,43 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>855</v>
+        <v>230</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>856</v>
+        <v>232</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>857</v>
+        <v>233</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>858</v>
+        <v>234</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>138</v>
+        <v>231</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>859</v>
+        <v>235</v>
       </c>
       <c r="K72" s="2">
-        <v>2005</v>
+        <v>1986</v>
       </c>
       <c r="L72" s="3">
-        <v>100000</v>
+        <v>295000</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>860</v>
+        <v>236</v>
       </c>
       <c r="N72">
         <v>100</v>
@@ -6735,22 +6739,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>230</v>
+        <v>398</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>234</v>
+        <v>401</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>231</v>
+        <v>289</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>8</v>
@@ -6762,16 +6766,16 @@
         <v>126</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>235</v>
+        <v>402</v>
       </c>
       <c r="K73" s="2">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="L73" s="3">
-        <v>295000</v>
+        <v>640000</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="N73">
         <v>100</v>
@@ -6779,43 +6783,43 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>289</v>
+        <v>452</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="K74" s="2">
-        <v>1982</v>
+        <v>2002</v>
       </c>
       <c r="L74" s="3">
-        <v>640000</v>
+        <v>265000</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="N74">
         <v>100</v>
@@ -6823,43 +6827,43 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>451</v>
+        <v>1026</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>453</v>
+        <v>1027</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>454</v>
+        <v>1028</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>455</v>
+        <v>1029</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>452</v>
+        <v>602</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>443</v>
+        <v>1030</v>
       </c>
       <c r="K75" s="2">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="L75" s="3">
-        <v>265000</v>
+        <v>144000</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>456</v>
+        <v>1031</v>
       </c>
       <c r="N75">
         <v>100</v>
@@ -6867,7 +6871,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>26</v>
@@ -6876,7 +6880,7 @@
         <v>1027</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>1029</v>
@@ -6894,16 +6898,16 @@
         <v>126</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="K76" s="2">
         <v>2007</v>
       </c>
       <c r="L76" s="3">
-        <v>144000</v>
+        <v>158000</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="N76">
         <v>100</v>
@@ -6911,43 +6915,43 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>1032</v>
+        <v>378</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>1027</v>
+        <v>379</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>1033</v>
+        <v>380</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1029</v>
+        <v>381</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>602</v>
+        <v>75</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>1034</v>
+        <v>382</v>
       </c>
       <c r="K77" s="2">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="L77" s="3">
-        <v>158000</v>
+        <v>123000</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>1035</v>
+        <v>383</v>
       </c>
       <c r="N77">
         <v>100</v>
@@ -6955,19 +6959,19 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>378</v>
+        <v>760</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>379</v>
+        <v>761</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>380</v>
+        <v>762</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>381</v>
+        <v>763</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>75</v>
@@ -6982,16 +6986,16 @@
         <v>76</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>382</v>
+        <v>764</v>
       </c>
       <c r="K78" s="2">
-        <v>1997</v>
+        <v>1973</v>
       </c>
       <c r="L78" s="3">
-        <v>123000</v>
+        <v>77000</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>383</v>
+        <v>765</v>
       </c>
       <c r="N78">
         <v>100</v>
@@ -6999,43 +7003,43 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>760</v>
+        <v>970</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>761</v>
+        <v>429</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>762</v>
+        <v>971</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>763</v>
+        <v>972</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>75</v>
+        <v>555</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>764</v>
+        <v>973</v>
       </c>
       <c r="K79" s="2">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="L79" s="3">
-        <v>77000</v>
+        <v>122000</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>765</v>
+        <v>974</v>
       </c>
       <c r="N79">
         <v>100</v>
@@ -7043,43 +7047,43 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>970</v>
+        <v>313</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>971</v>
+        <v>315</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>972</v>
+        <v>311</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>555</v>
+        <v>212</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>973</v>
+        <v>312</v>
       </c>
       <c r="K80" s="2">
-        <v>1975</v>
+        <v>2007</v>
       </c>
       <c r="L80" s="3">
-        <v>122000</v>
+        <v>154000</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>974</v>
+        <v>316</v>
       </c>
       <c r="N80">
         <v>100</v>
@@ -7087,7 +7091,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>20</v>
@@ -7096,10 +7100,10 @@
         <v>314</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>212</v>
@@ -7120,10 +7124,10 @@
         <v>2007</v>
       </c>
       <c r="L81" s="3">
-        <v>154000</v>
+        <v>245500</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N81">
         <v>100</v>
@@ -7131,19 +7135,19 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>212</v>
@@ -7158,16 +7162,16 @@
         <v>23</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="K82" s="2">
         <v>2007</v>
       </c>
       <c r="L82" s="3">
-        <v>245500</v>
+        <v>110000</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="N82">
         <v>100</v>
@@ -7175,22 +7179,22 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>356</v>
+        <v>518</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>357</v>
+        <v>520</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>358</v>
+        <v>521</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>359</v>
+        <v>522</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>212</v>
+        <v>519</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>8</v>
@@ -7202,16 +7206,16 @@
         <v>23</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>360</v>
+        <v>523</v>
       </c>
       <c r="K83" s="2">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="L83" s="3">
-        <v>110000</v>
+        <v>240000</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>361</v>
+        <v>524</v>
       </c>
       <c r="N83">
         <v>100</v>
@@ -7219,43 +7223,43 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>518</v>
+        <v>283</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>520</v>
+        <v>284</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>521</v>
+        <v>285</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>522</v>
+        <v>286</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>519</v>
+        <v>84</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>523</v>
+        <v>287</v>
       </c>
       <c r="K84" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="L84" s="3">
-        <v>240000</v>
+        <v>160000</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>524</v>
+        <v>288</v>
       </c>
       <c r="N84">
         <v>100</v>
@@ -7263,22 +7267,22 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>284</v>
+        <v>95</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>22</v>
@@ -7287,19 +7291,19 @@
         <v>24</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>287</v>
+        <v>99</v>
       </c>
       <c r="K85" s="2">
         <v>2005</v>
       </c>
       <c r="L85" s="3">
-        <v>160000</v>
+        <v>49000</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>288</v>
+        <v>100</v>
       </c>
       <c r="N85">
         <v>100</v>
@@ -7307,22 +7311,22 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>97</v>
+        <v>255</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>22</v>
@@ -7334,16 +7338,16 @@
         <v>98</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="K86" s="2">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="L86" s="3">
-        <v>49000</v>
+        <v>187000</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>100</v>
+        <v>257</v>
       </c>
       <c r="N86">
         <v>100</v>
@@ -7351,19 +7355,19 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>252</v>
+        <v>629</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>253</v>
+        <v>630</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>254</v>
+        <v>631</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>255</v>
+        <v>632</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>140</v>
@@ -7378,16 +7382,16 @@
         <v>98</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>256</v>
+        <v>633</v>
       </c>
       <c r="K87" s="2">
-        <v>2000</v>
+        <v>2008</v>
       </c>
       <c r="L87" s="3">
-        <v>187000</v>
+        <v>153000</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>257</v>
+        <v>634</v>
       </c>
       <c r="N87">
         <v>100</v>
@@ -7395,22 +7399,22 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>629</v>
+        <v>66</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>630</v>
+        <v>68</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>631</v>
+        <v>69</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>632</v>
+        <v>70</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>22</v>
@@ -7419,19 +7423,19 @@
         <v>24</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>633</v>
+        <v>71</v>
       </c>
       <c r="K88" s="2">
-        <v>2008</v>
+        <v>1966</v>
       </c>
       <c r="L88" s="3">
-        <v>153000</v>
+        <v>24800</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>634</v>
+        <v>72</v>
       </c>
       <c r="N88">
         <v>100</v>
@@ -7439,22 +7443,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>66</v>
+        <v>270</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>70</v>
+        <v>272</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>22</v>
@@ -7466,16 +7470,16 @@
         <v>24</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>71</v>
+        <v>273</v>
       </c>
       <c r="K89" s="2">
-        <v>1966</v>
+        <v>1999</v>
       </c>
       <c r="L89" s="3">
-        <v>24800</v>
+        <v>335000</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>72</v>
+        <v>274</v>
       </c>
       <c r="N89">
         <v>100</v>
@@ -7483,22 +7487,22 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>270</v>
+        <v>836</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>158</v>
+        <v>671</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>271</v>
+        <v>837</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>272</v>
+        <v>838</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>268</v>
+        <v>554</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>22</v>
@@ -7510,16 +7514,16 @@
         <v>24</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>273</v>
+        <v>839</v>
       </c>
       <c r="K90" s="2">
-        <v>1999</v>
+        <v>1969</v>
       </c>
       <c r="L90" s="3">
-        <v>335000</v>
+        <v>86000</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>274</v>
+        <v>840</v>
       </c>
       <c r="N90">
         <v>100</v>
@@ -7527,43 +7531,43 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
-        <v>836</v>
+        <v>222</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>671</v>
+        <v>223</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>837</v>
+        <v>224</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>838</v>
+        <v>225</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>554</v>
+        <v>120</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>839</v>
+        <v>226</v>
       </c>
       <c r="K91" s="2">
         <v>1969</v>
       </c>
       <c r="L91" s="3">
-        <v>86000</v>
+        <v>175000</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>840</v>
+        <v>227</v>
       </c>
       <c r="N91">
         <v>100</v>
@@ -7571,22 +7575,22 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
-        <v>1036</v>
+        <v>501</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1037</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1038</v>
+        <v>502</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="F92" s="6">
-        <v>54645</v>
+        <v>503</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>22</v>
@@ -7595,15 +7599,19 @@
         <v>24</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="K92" s="2">
+        <v>2003</v>
+      </c>
       <c r="L92" s="3">
-        <v>1450000</v>
+        <v>230000</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>1040</v>
+        <v>505</v>
       </c>
       <c r="N92">
         <v>100</v>
@@ -7611,43 +7619,43 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>222</v>
+        <v>754</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>224</v>
+        <v>755</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>225</v>
+        <v>756</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>120</v>
+        <v>546</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>226</v>
+        <v>757</v>
       </c>
       <c r="K93" s="2">
-        <v>1969</v>
+        <v>1956</v>
       </c>
       <c r="L93" s="3">
-        <v>175000</v>
+        <v>60000</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>227</v>
+        <v>758</v>
       </c>
       <c r="N93">
         <v>100</v>
@@ -7655,43 +7663,43 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>501</v>
+        <v>179</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>502</v>
+        <v>182</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>503</v>
+        <v>183</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>504</v>
+        <v>184</v>
       </c>
       <c r="K94" s="2">
-        <v>2003</v>
+        <v>1998</v>
       </c>
       <c r="L94" s="3">
-        <v>230000</v>
+        <v>400000</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>505</v>
+        <v>185</v>
       </c>
       <c r="N94">
         <v>100</v>
@@ -7699,43 +7707,43 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>754</v>
+        <v>187</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>755</v>
+        <v>190</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>756</v>
+        <v>191</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>546</v>
+        <v>188</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>757</v>
+        <v>192</v>
       </c>
       <c r="K95" s="2">
-        <v>1956</v>
+        <v>2004</v>
       </c>
       <c r="L95" s="3">
-        <v>60000</v>
+        <v>485000</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>758</v>
+        <v>193</v>
       </c>
       <c r="N95">
         <v>100</v>
@@ -7743,22 +7751,22 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>8</v>
@@ -7770,16 +7778,16 @@
         <v>123</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K96" s="2">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="L96" s="3">
-        <v>400000</v>
+        <v>460000</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="N96">
         <v>100</v>
@@ -7787,22 +7795,22 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>187</v>
+        <v>296</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>189</v>
+        <v>298</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>188</v>
+        <v>297</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>8</v>
@@ -7814,16 +7822,16 @@
         <v>123</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="K97" s="2">
-        <v>2004</v>
+        <v>1972</v>
       </c>
       <c r="L97" s="3">
-        <v>485000</v>
+        <v>470000</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="N97">
         <v>100</v>
@@ -7831,22 +7839,22 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>194</v>
+        <v>872</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>189</v>
+        <v>873</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>195</v>
+        <v>874</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>191</v>
+        <v>875</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>8</v>
@@ -7858,16 +7866,16 @@
         <v>123</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>192</v>
+        <v>876</v>
       </c>
       <c r="K98" s="2">
-        <v>2004</v>
+        <v>1980</v>
       </c>
       <c r="L98" s="3">
-        <v>460000</v>
+        <v>845000</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>196</v>
+        <v>877</v>
       </c>
       <c r="N98">
         <v>100</v>
@@ -7875,43 +7883,43 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>296</v>
+        <v>707</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>299</v>
+        <v>708</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>300</v>
+        <v>709</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>297</v>
+        <v>104</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>302</v>
+        <v>710</v>
       </c>
       <c r="K99" s="2">
-        <v>1972</v>
+        <v>2006</v>
       </c>
       <c r="L99" s="3">
-        <v>470000</v>
+        <v>120000</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>301</v>
+        <v>711</v>
       </c>
       <c r="N99">
         <v>100</v>
@@ -7919,43 +7927,43 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>872</v>
+        <v>741</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>873</v>
+        <v>700</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>874</v>
+        <v>743</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>875</v>
+        <v>744</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>180</v>
+        <v>742</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>876</v>
+        <v>745</v>
       </c>
       <c r="K100" s="2">
-        <v>1980</v>
+        <v>1988</v>
       </c>
       <c r="L100" s="3">
-        <v>845000</v>
+        <v>111000</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>877</v>
+        <v>746</v>
       </c>
       <c r="N100">
         <v>100</v>
@@ -7963,7 +7971,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>20</v>
@@ -7972,10 +7980,10 @@
         <v>134</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>104</v>
@@ -7990,16 +7998,16 @@
         <v>105</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>710</v>
+        <v>798</v>
       </c>
       <c r="K101" s="2">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="L101" s="3">
-        <v>120000</v>
+        <v>75000</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>711</v>
+        <v>799</v>
       </c>
       <c r="N101">
         <v>100</v>
@@ -8007,19 +8015,19 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>741</v>
+        <v>919</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>700</v>
+        <v>920</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>743</v>
+        <v>921</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>744</v>
+        <v>922</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>742</v>
@@ -8034,16 +8042,16 @@
         <v>105</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>745</v>
+        <v>923</v>
       </c>
       <c r="K102" s="2">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="L102" s="3">
-        <v>111000</v>
+        <v>120000</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>746</v>
+        <v>924</v>
       </c>
       <c r="N102">
         <v>100</v>
@@ -8051,43 +8059,43 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>134</v>
+        <v>786</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>104</v>
+        <v>788</v>
+      </c>
+      <c r="F103" s="6">
+        <v>18121</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="K103" s="2">
-        <v>2003</v>
+        <v>1967</v>
       </c>
       <c r="L103" s="3">
         <v>75000</v>
       </c>
       <c r="M103" s="2" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="N103">
         <v>100</v>
@@ -8095,22 +8103,22 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>919</v>
+        <v>128</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>920</v>
+        <v>129</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>921</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>742</v>
+        <v>131</v>
+      </c>
+      <c r="F104" s="6">
+        <v>57200</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>22</v>
@@ -8119,19 +8127,19 @@
         <v>24</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>923</v>
+        <v>132</v>
       </c>
       <c r="K104" s="2">
-        <v>1982</v>
+        <v>2006</v>
       </c>
       <c r="L104" s="3">
-        <v>120000</v>
+        <v>85000</v>
       </c>
       <c r="M104" s="2" t="s">
-        <v>924</v>
+        <v>133</v>
       </c>
       <c r="N104">
         <v>100</v>
@@ -8139,43 +8147,43 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>785</v>
+        <v>603</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>786</v>
+        <v>604</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>787</v>
+        <v>605</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="F105" s="6">
-        <v>18121</v>
+        <v>606</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>789</v>
+        <v>607</v>
       </c>
       <c r="K105" s="2">
-        <v>1967</v>
+        <v>2007</v>
       </c>
       <c r="L105" s="3">
-        <v>75000</v>
+        <v>163000</v>
       </c>
       <c r="M105" s="2" t="s">
-        <v>790</v>
+        <v>608</v>
       </c>
       <c r="N105">
         <v>100</v>
@@ -8183,43 +8191,43 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>845</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>129</v>
+        <v>846</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>847</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="F106" s="6">
-        <v>57200</v>
+        <v>848</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>132</v>
+        <v>849</v>
       </c>
       <c r="K106" s="2">
-        <v>2006</v>
+        <v>1981</v>
       </c>
       <c r="L106" s="3">
-        <v>85000</v>
+        <v>97000</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>133</v>
+        <v>850</v>
       </c>
       <c r="N106">
         <v>100</v>
@@ -8227,43 +8235,43 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>603</v>
+        <v>536</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>604</v>
+        <v>537</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>605</v>
+        <v>538</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>606</v>
+        <v>539</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>151</v>
+        <v>475</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>607</v>
+        <v>540</v>
       </c>
       <c r="K107" s="2">
-        <v>2007</v>
+        <v>1982</v>
       </c>
       <c r="L107" s="3">
-        <v>163000</v>
+        <v>55000</v>
       </c>
       <c r="M107" s="2" t="s">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="N107">
         <v>100</v>
@@ -8271,43 +8279,43 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
-        <v>845</v>
+        <v>542</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>846</v>
+        <v>543</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>847</v>
+        <v>544</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>848</v>
+        <v>539</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>212</v>
+        <v>475</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>849</v>
+        <v>540</v>
       </c>
       <c r="K108" s="2">
-        <v>1981</v>
+        <v>2007</v>
       </c>
       <c r="L108" s="3">
-        <v>97000</v>
+        <v>395000</v>
       </c>
       <c r="M108" s="2" t="s">
-        <v>850</v>
+        <v>545</v>
       </c>
       <c r="N108">
         <v>100</v>
@@ -8315,43 +8323,43 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>536</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>537</v>
+        <v>153</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>538</v>
+        <v>154</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>539</v>
+        <v>155</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>475</v>
+        <v>17</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>540</v>
+        <v>156</v>
       </c>
       <c r="K109" s="2">
-        <v>1982</v>
+        <v>2006</v>
       </c>
       <c r="L109" s="3">
-        <v>55000</v>
+        <v>330000</v>
       </c>
       <c r="M109" s="2" t="s">
-        <v>541</v>
+        <v>157</v>
       </c>
       <c r="N109">
         <v>100</v>
@@ -8359,43 +8367,43 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
-        <v>542</v>
+        <v>277</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>543</v>
+        <v>278</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>544</v>
+        <v>279</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>539</v>
+        <v>280</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>540</v>
+        <v>281</v>
       </c>
       <c r="K110" s="2">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="L110" s="3">
-        <v>395000</v>
+        <v>228000</v>
       </c>
       <c r="M110" s="2" t="s">
-        <v>545</v>
+        <v>282</v>
       </c>
       <c r="N110">
         <v>100</v>
@@ -8403,22 +8411,22 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
-        <v>152</v>
+        <v>341</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>153</v>
+        <v>342</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>155</v>
+        <v>344</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>8</v>
@@ -8427,19 +8435,19 @@
         <v>18</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>19</v>
+        <v>276</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>156</v>
+        <v>345</v>
       </c>
       <c r="K111" s="2">
-        <v>2006</v>
+        <v>1992</v>
       </c>
       <c r="L111" s="3">
-        <v>330000</v>
+        <v>565000</v>
       </c>
       <c r="M111" s="2" t="s">
-        <v>157</v>
+        <v>346</v>
       </c>
       <c r="N111">
         <v>100</v>
@@ -8447,19 +8455,19 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
-        <v>277</v>
+        <v>736</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>278</v>
+        <v>737</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>279</v>
+        <v>738</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>280</v>
+        <v>739</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>275</v>
@@ -8474,16 +8482,16 @@
         <v>276</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>281</v>
+        <v>740</v>
       </c>
       <c r="K112" s="2">
-        <v>1986</v>
+        <v>2005</v>
       </c>
       <c r="L112" s="3">
-        <v>228000</v>
+        <v>93000</v>
       </c>
       <c r="M112" s="2" t="s">
-        <v>282</v>
+        <v>347</v>
       </c>
       <c r="N112">
         <v>100</v>
@@ -8491,43 +8499,43 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>341</v>
+        <v>40</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>343</v>
+        <v>42</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>344</v>
+        <v>43</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>345</v>
+        <v>44</v>
       </c>
       <c r="K113" s="2">
-        <v>1992</v>
+        <v>1970</v>
       </c>
       <c r="L113" s="3">
-        <v>565000</v>
+        <v>30000</v>
       </c>
       <c r="M113" s="2" t="s">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="N113">
         <v>100</v>
@@ -8535,43 +8543,43 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
-        <v>736</v>
+        <v>86</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>737</v>
+        <v>87</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>738</v>
+        <v>88</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>275</v>
+        <v>89</v>
+      </c>
+      <c r="F114" s="6">
+        <v>19100</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>276</v>
+        <v>33</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>740</v>
+        <v>90</v>
       </c>
       <c r="K114" s="2">
-        <v>2005</v>
+        <v>1950</v>
       </c>
       <c r="L114" s="3">
-        <v>93000</v>
+        <v>32000</v>
       </c>
       <c r="M114" s="2" t="s">
-        <v>347</v>
+        <v>91</v>
       </c>
       <c r="N114">
         <v>100</v>
@@ -8579,19 +8587,19 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
-        <v>40</v>
+        <v>1014</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>41</v>
+        <v>563</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>42</v>
+        <v>1015</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>43</v>
+        <v>1016</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>31</v>
@@ -8606,16 +8614,16 @@
         <v>33</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>44</v>
+        <v>1017</v>
       </c>
       <c r="K115" s="2">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="L115" s="3">
-        <v>30000</v>
+        <v>71000</v>
       </c>
       <c r="M115" s="2" t="s">
-        <v>45</v>
+        <v>1018</v>
       </c>
       <c r="N115">
         <v>100</v>
@@ -8623,43 +8631,43 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
-        <v>86</v>
+        <v>665</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>87</v>
+        <v>666</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>88</v>
+        <v>667</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F116" s="6">
-        <v>19100</v>
+        <v>668</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>90</v>
+        <v>669</v>
       </c>
       <c r="K116" s="2">
-        <v>1950</v>
+        <v>2005</v>
       </c>
       <c r="L116" s="3">
-        <v>32000</v>
+        <v>87000</v>
       </c>
       <c r="M116" s="2" t="s">
-        <v>91</v>
+        <v>670</v>
       </c>
       <c r="N116">
         <v>100</v>
@@ -8667,43 +8675,43 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
-        <v>1014</v>
+        <v>258</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>563</v>
+        <v>260</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1015</v>
+        <v>261</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>1016</v>
+        <v>262</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>31</v>
+        <v>259</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>1017</v>
+        <v>263</v>
       </c>
       <c r="K117" s="2">
-        <v>1972</v>
+        <v>1967</v>
       </c>
       <c r="L117" s="3">
-        <v>71000</v>
+        <v>195000</v>
       </c>
       <c r="M117" s="2" t="s">
-        <v>1018</v>
+        <v>264</v>
       </c>
       <c r="N117">
         <v>100</v>
@@ -8711,43 +8719,43 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
-        <v>665</v>
+        <v>800</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>666</v>
+        <v>729</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>667</v>
+        <v>801</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>668</v>
+        <v>802</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>213</v>
+        <v>759</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>669</v>
+        <v>803</v>
       </c>
       <c r="K118" s="2">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="L118" s="3">
-        <v>87000</v>
+        <v>86000</v>
       </c>
       <c r="M118" s="2" t="s">
-        <v>670</v>
+        <v>804</v>
       </c>
       <c r="N118">
         <v>100</v>
@@ -8755,43 +8763,43 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>260</v>
+        <v>305</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>261</v>
+        <v>306</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>262</v>
+        <v>307</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>259</v>
+        <v>304</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="K119" s="2">
-        <v>1967</v>
+        <v>2007</v>
       </c>
       <c r="L119" s="3">
-        <v>195000</v>
+        <v>625900</v>
       </c>
       <c r="M119" s="2" t="s">
-        <v>264</v>
+        <v>310</v>
       </c>
       <c r="N119">
         <v>100</v>
@@ -8799,43 +8807,43 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
-        <v>800</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>729</v>
+        <v>112</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>801</v>
+        <v>113</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>759</v>
+        <v>114</v>
+      </c>
+      <c r="F120" s="6">
+        <v>17562</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>803</v>
+        <v>116</v>
       </c>
       <c r="K120" s="2">
-        <v>1965</v>
+        <v>1967</v>
       </c>
       <c r="L120" s="3">
-        <v>86000</v>
+        <v>165000</v>
       </c>
       <c r="M120" s="2" t="s">
-        <v>804</v>
+        <v>117</v>
       </c>
       <c r="N120">
         <v>100</v>
@@ -8843,43 +8851,43 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
-        <v>303</v>
+        <v>171</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>305</v>
+        <v>173</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>306</v>
+        <v>174</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>307</v>
+        <v>175</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>309</v>
+        <v>176</v>
       </c>
       <c r="K121" s="2">
-        <v>2007</v>
+        <v>1992</v>
       </c>
       <c r="L121" s="3">
-        <v>625900</v>
+        <v>535000</v>
       </c>
       <c r="M121" s="2" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="N121">
         <v>100</v>
@@ -8887,22 +8895,22 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>112</v>
+        <v>549</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>113</v>
+        <v>550</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="6">
-        <v>17562</v>
+        <v>551</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>548</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>8</v>
@@ -8914,16 +8922,16 @@
         <v>115</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>116</v>
+        <v>552</v>
       </c>
       <c r="K122" s="2">
-        <v>1967</v>
+        <v>2005</v>
       </c>
       <c r="L122" s="3">
-        <v>165000</v>
+        <v>414000</v>
       </c>
       <c r="M122" s="2" t="s">
-        <v>117</v>
+        <v>553</v>
       </c>
       <c r="N122">
         <v>100</v>
@@ -8931,43 +8939,43 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
-        <v>171</v>
+        <v>578</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>173</v>
+        <v>579</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>174</v>
+        <v>580</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>175</v>
+        <v>581</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>176</v>
+        <v>582</v>
       </c>
       <c r="K123" s="2">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="L123" s="3">
-        <v>535000</v>
+        <v>788000</v>
       </c>
       <c r="M123" s="2" t="s">
-        <v>177</v>
+        <v>583</v>
       </c>
       <c r="N123">
         <v>100</v>
@@ -8975,43 +8983,43 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
-        <v>547</v>
+        <v>819</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>549</v>
+        <v>820</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>550</v>
+        <v>821</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>551</v>
+        <v>822</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>548</v>
+        <v>29</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>552</v>
+        <v>823</v>
       </c>
       <c r="K124" s="2">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="L124" s="3">
-        <v>414000</v>
+        <v>356000</v>
       </c>
       <c r="M124" s="2" t="s">
-        <v>553</v>
+        <v>824</v>
       </c>
       <c r="N124">
         <v>100</v>
@@ -9019,43 +9027,43 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
-        <v>578</v>
+        <v>203</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>579</v>
+        <v>204</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>580</v>
+        <v>205</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>581</v>
+        <v>206</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>582</v>
+        <v>207</v>
       </c>
       <c r="K125" s="2">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="L125" s="3">
-        <v>788000</v>
+        <v>430000</v>
       </c>
       <c r="M125" s="2" t="s">
-        <v>583</v>
+        <v>208</v>
       </c>
       <c r="N125">
         <v>100</v>
@@ -9063,43 +9071,43 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
-        <v>819</v>
+        <v>644</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>820</v>
+        <v>643</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>821</v>
+        <v>645</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>822</v>
+        <v>646</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>823</v>
+        <v>647</v>
       </c>
       <c r="K126" s="2">
-        <v>1999</v>
+        <v>1976</v>
       </c>
       <c r="L126" s="3">
-        <v>356000</v>
+        <v>115000</v>
       </c>
       <c r="M126" s="2" t="s">
-        <v>824</v>
+        <v>648</v>
       </c>
       <c r="N126">
         <v>100</v>
@@ -9107,43 +9115,43 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K127" s="2">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="L127" s="3">
-        <v>430000</v>
+        <v>170000</v>
       </c>
       <c r="M127" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N127">
         <v>100</v>
@@ -9151,43 +9159,43 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>644</v>
+        <v>239</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>643</v>
+        <v>240</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>645</v>
+        <v>241</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>646</v>
+        <v>242</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>82</v>
+        <v>9</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>647</v>
+        <v>243</v>
       </c>
       <c r="K128" s="2">
-        <v>1976</v>
+        <v>2001</v>
       </c>
       <c r="L128" s="3">
-        <v>115000</v>
+        <v>260000</v>
       </c>
       <c r="M128" s="2" t="s">
-        <v>648</v>
+        <v>244</v>
       </c>
       <c r="N128">
         <v>100</v>
@@ -9195,22 +9203,22 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>197</v>
+        <v>507</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>199</v>
+        <v>508</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>200</v>
+        <v>509</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>8</v>
@@ -9222,16 +9230,16 @@
         <v>9</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>201</v>
+        <v>510</v>
       </c>
       <c r="K129" s="2">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="L129" s="3">
-        <v>170000</v>
+        <v>167000</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>202</v>
+        <v>511</v>
       </c>
       <c r="N129">
         <v>100</v>
@@ -9239,22 +9247,22 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>239</v>
+        <v>584</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>241</v>
+        <v>585</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>242</v>
+        <v>586</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>101</v>
+        <v>392</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>8</v>
@@ -9266,16 +9274,16 @@
         <v>9</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>243</v>
+        <v>587</v>
       </c>
       <c r="K130" s="2">
-        <v>2001</v>
+        <v>1955</v>
       </c>
       <c r="L130" s="3">
-        <v>260000</v>
+        <v>100000</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>244</v>
+        <v>588</v>
       </c>
       <c r="N130">
         <v>100</v>
@@ -9283,7 +9291,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>507</v>
+        <v>649</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>20</v>
@@ -9292,10 +9300,10 @@
         <v>79</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>508</v>
+        <v>650</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>509</v>
+        <v>651</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>489</v>
@@ -9310,16 +9318,16 @@
         <v>9</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>510</v>
+        <v>652</v>
       </c>
       <c r="K131" s="2">
-        <v>2004</v>
+        <v>1966</v>
       </c>
       <c r="L131" s="3">
-        <v>167000</v>
+        <v>80000</v>
       </c>
       <c r="M131" s="2" t="s">
-        <v>511</v>
+        <v>653</v>
       </c>
       <c r="N131">
         <v>100</v>
@@ -9327,22 +9335,22 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>584</v>
+        <v>701</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>362</v>
+        <v>79</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>585</v>
+        <v>703</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>586</v>
+        <v>704</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>392</v>
+        <v>702</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>8</v>
@@ -9354,16 +9362,16 @@
         <v>9</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>587</v>
+        <v>705</v>
       </c>
       <c r="K132" s="2">
-        <v>1955</v>
+        <v>1965</v>
       </c>
       <c r="L132" s="3">
-        <v>100000</v>
+        <v>70000</v>
       </c>
       <c r="M132" s="2" t="s">
-        <v>588</v>
+        <v>706</v>
       </c>
       <c r="N132">
         <v>100</v>
@@ -9371,22 +9379,22 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>649</v>
+        <v>939</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>79</v>
+        <v>937</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>650</v>
+        <v>940</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>651</v>
+        <v>938</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>489</v>
+        <v>936</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>8</v>
@@ -9398,16 +9406,16 @@
         <v>9</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>652</v>
+        <v>941</v>
       </c>
       <c r="K133" s="2">
-        <v>1966</v>
+        <v>1958</v>
       </c>
       <c r="L133" s="3">
-        <v>80000</v>
+        <v>88000</v>
       </c>
       <c r="M133" s="2" t="s">
-        <v>653</v>
+        <v>942</v>
       </c>
       <c r="N133">
         <v>100</v>
@@ -9415,43 +9423,43 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>701</v>
+        <v>975</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>79</v>
+        <v>977</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>703</v>
+        <v>978</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>704</v>
+        <v>979</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>702</v>
+        <v>976</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>705</v>
+        <v>980</v>
       </c>
       <c r="K134" s="2">
-        <v>1965</v>
+        <v>1977</v>
       </c>
       <c r="L134" s="3">
-        <v>70000</v>
+        <v>740000</v>
       </c>
       <c r="M134" s="2" t="s">
-        <v>706</v>
+        <v>981</v>
       </c>
       <c r="N134">
         <v>100</v>
@@ -9459,22 +9467,22 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>939</v>
+        <v>48</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>937</v>
+        <v>50</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>940</v>
+        <v>51</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>938</v>
+        <v>52</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>936</v>
+        <v>49</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>8</v>
@@ -9483,19 +9491,19 @@
         <v>9</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>941</v>
+        <v>54</v>
       </c>
       <c r="K135" s="2">
-        <v>1958</v>
+        <v>1975</v>
       </c>
       <c r="L135" s="3">
-        <v>88000</v>
+        <v>98000</v>
       </c>
       <c r="M135" s="2" t="s">
-        <v>942</v>
+        <v>55</v>
       </c>
       <c r="N135">
         <v>100</v>
@@ -9503,43 +9511,43 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>977</v>
+        <v>80</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>978</v>
+        <v>990</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>979</v>
+        <v>991</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>976</v>
+        <v>766</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="I136" s="2" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>980</v>
+        <v>992</v>
       </c>
       <c r="K136" s="2">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="L136" s="3">
-        <v>740000</v>
+        <v>120000</v>
       </c>
       <c r="M136" s="2" t="s">
-        <v>981</v>
+        <v>993</v>
       </c>
       <c r="N136">
         <v>100</v>
@@ -9547,43 +9555,43 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F137" s="6" t="s">
-        <v>49</v>
+        <v>166</v>
+      </c>
+      <c r="F137" s="6">
+        <v>13231</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I137" s="2" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="K137" s="2">
-        <v>1975</v>
+        <v>1992</v>
       </c>
       <c r="L137" s="3">
-        <v>98000</v>
+        <v>185000</v>
       </c>
       <c r="M137" s="2" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="N137">
         <v>100</v>
@@ -9591,43 +9599,43 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>989</v>
+        <v>290</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>80</v>
+        <v>291</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>990</v>
+        <v>292</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>991</v>
+        <v>293</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>766</v>
+        <v>29</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I138" s="2" t="s">
-        <v>37</v>
+        <v>265</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>992</v>
+        <v>294</v>
       </c>
       <c r="K138" s="2">
-        <v>1966</v>
+        <v>2007</v>
       </c>
       <c r="L138" s="3">
-        <v>120000</v>
+        <v>420000</v>
       </c>
       <c r="M138" s="2" t="s">
-        <v>993</v>
+        <v>295</v>
       </c>
       <c r="N138">
         <v>100</v>
@@ -9635,43 +9643,43 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>163</v>
+        <v>335</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>164</v>
+        <v>336</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>337</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>166</v>
+        <v>338</v>
       </c>
       <c r="F139" s="6">
-        <v>13231</v>
+        <v>19010</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="K139" s="2">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="L139" s="3">
-        <v>185000</v>
+        <v>605000</v>
       </c>
       <c r="M139" s="2" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
       <c r="N139">
         <v>100</v>
@@ -9679,22 +9687,22 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>290</v>
+        <v>948</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>291</v>
+        <v>950</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>292</v>
+        <v>951</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>293</v>
+        <v>952</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>29</v>
+        <v>949</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>8</v>
@@ -9703,19 +9711,19 @@
         <v>18</v>
       </c>
       <c r="I140" s="2" t="s">
-        <v>265</v>
+        <v>122</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="K140" s="2">
-        <v>2007</v>
+        <v>953</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>767</v>
       </c>
       <c r="L140" s="3">
-        <v>420000</v>
+        <v>530000</v>
       </c>
       <c r="M140" s="2" t="s">
-        <v>295</v>
+        <v>954</v>
       </c>
       <c r="N140">
         <v>100</v>
@@ -9723,22 +9731,22 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>335</v>
+        <v>393</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>336</v>
+        <v>170</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F141" s="6">
-        <v>19010</v>
+        <v>395</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>8</v>
@@ -9747,19 +9755,19 @@
         <v>18</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="K141" s="2">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="L141" s="3">
-        <v>605000</v>
+        <v>286000</v>
       </c>
       <c r="M141" s="2" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="N141">
         <v>100</v>
@@ -9767,43 +9775,43 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>948</v>
+        <v>329</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>950</v>
+        <v>330</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>951</v>
+        <v>331</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>952</v>
+        <v>332</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>949</v>
+        <v>237</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="K142" s="2" t="s">
-        <v>767</v>
+        <v>333</v>
+      </c>
+      <c r="K142" s="2">
+        <v>2006</v>
       </c>
       <c r="L142" s="3">
-        <v>530000</v>
+        <v>292000</v>
       </c>
       <c r="M142" s="2" t="s">
-        <v>954</v>
+        <v>334</v>
       </c>
       <c r="N142">
         <v>100</v>
@@ -9811,43 +9819,43 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>393</v>
+        <v>623</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>170</v>
+        <v>624</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>394</v>
+        <v>625</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>395</v>
+        <v>626</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>396</v>
+        <v>627</v>
       </c>
       <c r="K143" s="2">
-        <v>2002</v>
+        <v>1989</v>
       </c>
       <c r="L143" s="3">
-        <v>286000</v>
+        <v>94000</v>
       </c>
       <c r="M143" s="2" t="s">
-        <v>397</v>
+        <v>628</v>
       </c>
       <c r="N143">
         <v>100</v>
@@ -9855,22 +9863,22 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>329</v>
+        <v>730</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>330</v>
+        <v>731</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>331</v>
+        <v>732</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>332</v>
+        <v>733</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>237</v>
+        <v>590</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>8</v>
@@ -9882,16 +9890,16 @@
         <v>141</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>333</v>
+        <v>734</v>
       </c>
       <c r="K144" s="2">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="L144" s="3">
-        <v>292000</v>
+        <v>50000</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>334</v>
+        <v>735</v>
       </c>
       <c r="N144">
         <v>100</v>
@@ -9899,22 +9907,22 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>623</v>
+        <v>831</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>624</v>
+        <v>832</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>625</v>
+        <v>833</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>266</v>
+        <v>834</v>
+      </c>
+      <c r="F145" s="6">
+        <v>13341</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>8</v>
@@ -9926,16 +9934,16 @@
         <v>141</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>627</v>
+        <v>267</v>
       </c>
       <c r="K145" s="2">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="L145" s="3">
-        <v>94000</v>
+        <v>210000</v>
       </c>
       <c r="M145" s="2" t="s">
-        <v>628</v>
+        <v>835</v>
       </c>
       <c r="N145">
         <v>100</v>
@@ -9943,43 +9951,43 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>730</v>
+        <v>56</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>731</v>
+        <v>58</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>732</v>
+        <v>59</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>733</v>
+        <v>60</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>590</v>
+        <v>57</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>734</v>
+        <v>62</v>
       </c>
       <c r="K146" s="2">
-        <v>1976</v>
+        <v>1946</v>
       </c>
       <c r="L146" s="3">
-        <v>50000</v>
+        <v>55000</v>
       </c>
       <c r="M146" s="2" t="s">
-        <v>735</v>
+        <v>63</v>
       </c>
       <c r="N146">
         <v>100</v>
@@ -9987,43 +9995,43 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
-        <v>831</v>
+        <v>1001</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>832</v>
+        <v>1003</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>833</v>
+        <v>1004</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="F147" s="6">
-        <v>13341</v>
+        <v>1005</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>1002</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>267</v>
+        <v>1006</v>
       </c>
       <c r="K147" s="2">
-        <v>1990</v>
+        <v>2005</v>
       </c>
       <c r="L147" s="3">
-        <v>210000</v>
+        <v>110000</v>
       </c>
       <c r="M147" s="2" t="s">
-        <v>835</v>
+        <v>1007</v>
       </c>
       <c r="N147">
         <v>100</v>
@@ -10031,43 +10039,43 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
-        <v>56</v>
+        <v>1020</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>58</v>
+        <v>1021</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>59</v>
+        <v>1022</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>60</v>
+        <v>1023</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>57</v>
+        <v>1019</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>62</v>
+        <v>1024</v>
       </c>
       <c r="K148" s="2">
-        <v>1946</v>
+        <v>1991</v>
       </c>
       <c r="L148" s="3">
-        <v>55000</v>
+        <v>69000</v>
       </c>
       <c r="M148" s="2" t="s">
-        <v>63</v>
+        <v>1025</v>
       </c>
       <c r="N148">
         <v>100</v>
@@ -10075,22 +10083,22 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>1001</v>
+        <v>469</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>1003</v>
+        <v>470</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>1004</v>
+        <v>471</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>1005</v>
+        <v>472</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>1002</v>
+        <v>269</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>22</v>
@@ -10099,19 +10107,19 @@
         <v>24</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>1006</v>
+        <v>473</v>
       </c>
       <c r="K149" s="2">
-        <v>2005</v>
+        <v>1999</v>
       </c>
       <c r="L149" s="3">
-        <v>110000</v>
+        <v>290000</v>
       </c>
       <c r="M149" s="2" t="s">
-        <v>1007</v>
+        <v>474</v>
       </c>
       <c r="N149">
         <v>100</v>
@@ -10119,22 +10127,22 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
-        <v>1020</v>
+        <v>982</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>1021</v>
+        <v>984</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>1019</v>
+        <v>983</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>22</v>
@@ -10143,19 +10151,19 @@
         <v>24</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="K150" s="2">
-        <v>1991</v>
+        <v>1979</v>
       </c>
       <c r="L150" s="3">
-        <v>69000</v>
+        <v>140000</v>
       </c>
       <c r="M150" s="2" t="s">
-        <v>1025</v>
+        <v>988</v>
       </c>
       <c r="N150">
         <v>100</v>
@@ -10163,43 +10171,43 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>469</v>
+        <v>892</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>470</v>
+        <v>894</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>471</v>
+        <v>895</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>472</v>
+        <v>896</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>269</v>
+        <v>893</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>473</v>
+        <v>897</v>
       </c>
       <c r="K151" s="2">
-        <v>1999</v>
+        <v>1986</v>
       </c>
       <c r="L151" s="3">
-        <v>290000</v>
+        <v>155000</v>
       </c>
       <c r="M151" s="2" t="s">
-        <v>474</v>
+        <v>898</v>
       </c>
       <c r="N151">
         <v>100</v>
@@ -10207,87 +10215,79 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>982</v>
+        <v>1041</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>984</v>
+        <v>1042</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>985</v>
+        <v>1043</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>986</v>
+        <v>1044</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>983</v>
+        <v>64</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J152" s="2" t="s">
-        <v>987</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J152" s="2"/>
       <c r="K152" s="2">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="L152" s="3">
-        <v>140000</v>
-      </c>
-      <c r="M152" s="2" t="s">
-        <v>988</v>
-      </c>
+        <v>305000</v>
+      </c>
+      <c r="M152" s="2"/>
       <c r="N152">
         <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
-        <v>892</v>
+        <v>1036</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>894</v>
+        <v>1037</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>895</v>
+        <v>1038</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="F153" s="6" t="s">
-        <v>893</v>
+        <v>1039</v>
+      </c>
+      <c r="F153" s="6">
+        <v>54645</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J153" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="K153" s="2">
-        <v>1986</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="3">
-        <v>155000</v>
+        <v>1450000</v>
       </c>
       <c r="M153" s="2" t="s">
-        <v>898</v>
+        <v>1040</v>
       </c>
       <c r="N153">
         <v>100</v>

--- a/byhand/dvg_reo.xlsx
+++ b/byhand/dvg_reo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915BE50D-129E-4367-BC1E-253AD2D9EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37134A68-6207-4E81-B2D8-185652BD1D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="1051">
   <si>
     <t>AM Portal</t>
   </si>
@@ -3556,10 +3556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A63A6F5-31AB-4798-A958-181B73F691FF}">
-  <dimension ref="A1:N153"/>
+  <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3571,7 +3571,7 @@
     <col min="13" max="13" width="66.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3614,8 +3614,11 @@
       <c r="N1" s="8" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>437</v>
       </c>
@@ -3656,10 +3659,13 @@
         <v>442</v>
       </c>
       <c r="N2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>531</v>
       </c>
@@ -3700,10 +3706,13 @@
         <v>535</v>
       </c>
       <c r="N3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>348</v>
       </c>
@@ -3744,10 +3753,13 @@
         <v>353</v>
       </c>
       <c r="N4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>430</v>
       </c>
@@ -3788,10 +3800,13 @@
         <v>435</v>
       </c>
       <c r="N5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>457</v>
       </c>
@@ -3832,10 +3847,13 @@
         <v>462</v>
       </c>
       <c r="N6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>463</v>
       </c>
@@ -3876,10 +3894,13 @@
         <v>465</v>
       </c>
       <c r="N7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>466</v>
       </c>
@@ -3920,10 +3941,13 @@
         <v>468</v>
       </c>
       <c r="N8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>476</v>
       </c>
@@ -3964,10 +3988,13 @@
         <v>481</v>
       </c>
       <c r="N9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>483</v>
       </c>
@@ -4008,10 +4035,13 @@
         <v>488</v>
       </c>
       <c r="N10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>495</v>
       </c>
@@ -4052,10 +4082,13 @@
         <v>500</v>
       </c>
       <c r="N11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>525</v>
       </c>
@@ -4095,11 +4128,11 @@
       <c r="M12" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="N12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>556</v>
       </c>
@@ -4140,10 +4173,13 @@
         <v>562</v>
       </c>
       <c r="N13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>596</v>
       </c>
@@ -4184,10 +4220,13 @@
         <v>601</v>
       </c>
       <c r="N14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>616</v>
       </c>
@@ -4228,10 +4267,13 @@
         <v>621</v>
       </c>
       <c r="N15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>635</v>
       </c>
@@ -4272,10 +4314,13 @@
         <v>640</v>
       </c>
       <c r="N16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>654</v>
       </c>
@@ -4315,11 +4360,11 @@
       <c r="M17" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="N17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O17" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>660</v>
       </c>
@@ -4358,10 +4403,13 @@
       </c>
       <c r="M18" s="2"/>
       <c r="N18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>672</v>
       </c>
@@ -4402,10 +4450,13 @@
         <v>676</v>
       </c>
       <c r="N19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>677</v>
       </c>
@@ -4445,11 +4496,11 @@
       <c r="M20" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="N20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O20" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>683</v>
       </c>
@@ -4490,10 +4541,13 @@
         <v>687</v>
       </c>
       <c r="N21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>688</v>
       </c>
@@ -4534,10 +4588,13 @@
         <v>691</v>
       </c>
       <c r="N22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>695</v>
       </c>
@@ -4578,10 +4635,13 @@
         <v>699</v>
       </c>
       <c r="N23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>712</v>
       </c>
@@ -4624,8 +4684,11 @@
       <c r="N24">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>719</v>
       </c>
@@ -4666,10 +4729,13 @@
         <v>722</v>
       </c>
       <c r="N25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>723</v>
       </c>
@@ -4710,10 +4776,13 @@
         <v>728</v>
       </c>
       <c r="N26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>768</v>
       </c>
@@ -4754,10 +4823,13 @@
         <v>772</v>
       </c>
       <c r="N27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>773</v>
       </c>
@@ -4798,10 +4870,13 @@
         <v>778</v>
       </c>
       <c r="N28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>779</v>
       </c>
@@ -4842,10 +4917,13 @@
         <v>784</v>
       </c>
       <c r="N29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>791</v>
       </c>
@@ -4886,10 +4964,13 @@
         <v>794</v>
       </c>
       <c r="N30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>805</v>
       </c>
@@ -4930,10 +5011,13 @@
         <v>809</v>
       </c>
       <c r="N31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>810</v>
       </c>
@@ -4974,10 +5058,13 @@
         <v>813</v>
       </c>
       <c r="N32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>814</v>
       </c>
@@ -5018,10 +5105,13 @@
         <v>818</v>
       </c>
       <c r="N33">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>825</v>
       </c>
@@ -5062,10 +5152,13 @@
         <v>830</v>
       </c>
       <c r="N34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>841</v>
       </c>
@@ -5106,10 +5199,13 @@
         <v>844</v>
       </c>
       <c r="N35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>851</v>
       </c>
@@ -5150,10 +5246,13 @@
         <v>854</v>
       </c>
       <c r="N36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>861</v>
       </c>
@@ -5194,10 +5293,13 @@
         <v>866</v>
       </c>
       <c r="N37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>867</v>
       </c>
@@ -5238,10 +5340,13 @@
         <v>871</v>
       </c>
       <c r="N38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>883</v>
       </c>
@@ -5282,10 +5387,13 @@
         <v>887</v>
       </c>
       <c r="N39">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>888</v>
       </c>
@@ -5326,10 +5434,13 @@
         <v>891</v>
       </c>
       <c r="N40">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>904</v>
       </c>
@@ -5370,10 +5481,13 @@
         <v>908</v>
       </c>
       <c r="N41">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>909</v>
       </c>
@@ -5414,10 +5528,13 @@
         <v>913</v>
       </c>
       <c r="N42">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>914</v>
       </c>
@@ -5458,10 +5575,13 @@
         <v>918</v>
       </c>
       <c r="N43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>925</v>
       </c>
@@ -5502,10 +5622,13 @@
         <v>929</v>
       </c>
       <c r="N44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>930</v>
       </c>
@@ -5546,10 +5669,13 @@
         <v>935</v>
       </c>
       <c r="N45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>943</v>
       </c>
@@ -5590,10 +5716,13 @@
         <v>947</v>
       </c>
       <c r="N46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>961</v>
       </c>
@@ -5634,10 +5763,13 @@
         <v>965</v>
       </c>
       <c r="N47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>966</v>
       </c>
@@ -5678,10 +5810,13 @@
         <v>969</v>
       </c>
       <c r="N48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>571</v>
       </c>
@@ -5722,10 +5857,13 @@
         <v>577</v>
       </c>
       <c r="N49">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>364</v>
       </c>
@@ -5766,10 +5904,13 @@
         <v>370</v>
       </c>
       <c r="N50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>490</v>
       </c>
@@ -5810,10 +5951,13 @@
         <v>494</v>
       </c>
       <c r="N51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>747</v>
       </c>
@@ -5854,10 +5998,13 @@
         <v>752</v>
       </c>
       <c r="N52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>384</v>
       </c>
@@ -5898,10 +6045,13 @@
         <v>391</v>
       </c>
       <c r="N53">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>444</v>
       </c>
@@ -5942,10 +6092,13 @@
         <v>450</v>
       </c>
       <c r="N54">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>416</v>
       </c>
@@ -5986,10 +6139,13 @@
         <v>421</v>
       </c>
       <c r="N55">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>245</v>
       </c>
@@ -6030,10 +6186,13 @@
         <v>250</v>
       </c>
       <c r="N56">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>404</v>
       </c>
@@ -6074,10 +6233,13 @@
         <v>408</v>
       </c>
       <c r="N57">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>410</v>
       </c>
@@ -6118,10 +6280,13 @@
         <v>415</v>
       </c>
       <c r="N58">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>591</v>
       </c>
@@ -6162,10 +6327,13 @@
         <v>595</v>
       </c>
       <c r="N59">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>899</v>
       </c>
@@ -6206,10 +6374,13 @@
         <v>903</v>
       </c>
       <c r="N60">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>321</v>
       </c>
@@ -6250,10 +6421,13 @@
         <v>326</v>
       </c>
       <c r="N61">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>327</v>
       </c>
@@ -6294,10 +6468,13 @@
         <v>326</v>
       </c>
       <c r="N62">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>955</v>
       </c>
@@ -6338,10 +6515,13 @@
         <v>960</v>
       </c>
       <c r="N63">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>878</v>
       </c>
@@ -6382,10 +6562,13 @@
         <v>882</v>
       </c>
       <c r="N64">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>994</v>
       </c>
@@ -6426,10 +6609,13 @@
         <v>1000</v>
       </c>
       <c r="N65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>1008</v>
       </c>
@@ -6470,10 +6656,13 @@
         <v>1013</v>
       </c>
       <c r="N66">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>371</v>
       </c>
@@ -6514,10 +6703,13 @@
         <v>377</v>
       </c>
       <c r="N67">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>422</v>
       </c>
@@ -6558,10 +6750,13 @@
         <v>426</v>
       </c>
       <c r="N68">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>512</v>
       </c>
@@ -6602,10 +6797,13 @@
         <v>517</v>
       </c>
       <c r="N69">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>217</v>
       </c>
@@ -6646,10 +6844,13 @@
         <v>221</v>
       </c>
       <c r="N70">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>855</v>
       </c>
@@ -6690,10 +6891,13 @@
         <v>860</v>
       </c>
       <c r="N71">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>230</v>
       </c>
@@ -6734,10 +6938,13 @@
         <v>236</v>
       </c>
       <c r="N72">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>398</v>
       </c>
@@ -6778,10 +6985,13 @@
         <v>403</v>
       </c>
       <c r="N73">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>451</v>
       </c>
@@ -6822,10 +7032,13 @@
         <v>456</v>
       </c>
       <c r="N74">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>1026</v>
       </c>
@@ -6865,11 +7078,11 @@
       <c r="M75" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="N75">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O75" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>1032</v>
       </c>
@@ -6909,11 +7122,11 @@
       <c r="M76" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="N76">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O76" s="2" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>378</v>
       </c>
@@ -6954,10 +7167,13 @@
         <v>383</v>
       </c>
       <c r="N77">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>760</v>
       </c>
@@ -6998,10 +7214,13 @@
         <v>765</v>
       </c>
       <c r="N78">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>970</v>
       </c>
@@ -7042,10 +7261,13 @@
         <v>974</v>
       </c>
       <c r="N79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>313</v>
       </c>
@@ -7086,10 +7308,13 @@
         <v>316</v>
       </c>
       <c r="N80">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>317</v>
       </c>
@@ -7130,10 +7355,13 @@
         <v>320</v>
       </c>
       <c r="N81">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>356</v>
       </c>
@@ -7174,10 +7402,13 @@
         <v>361</v>
       </c>
       <c r="N82">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>518</v>
       </c>
@@ -7218,10 +7449,13 @@
         <v>524</v>
       </c>
       <c r="N83">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>283</v>
       </c>
@@ -7262,10 +7496,13 @@
         <v>288</v>
       </c>
       <c r="N84">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>93</v>
       </c>
@@ -7306,10 +7543,13 @@
         <v>100</v>
       </c>
       <c r="N85">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>252</v>
       </c>
@@ -7350,10 +7590,13 @@
         <v>257</v>
       </c>
       <c r="N86">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>629</v>
       </c>
@@ -7394,10 +7637,13 @@
         <v>634</v>
       </c>
       <c r="N87">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>66</v>
       </c>
@@ -7438,10 +7684,13 @@
         <v>72</v>
       </c>
       <c r="N88">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>270</v>
       </c>
@@ -7482,10 +7731,13 @@
         <v>274</v>
       </c>
       <c r="N89">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>836</v>
       </c>
@@ -7526,10 +7778,13 @@
         <v>840</v>
       </c>
       <c r="N90">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>222</v>
       </c>
@@ -7570,10 +7825,13 @@
         <v>227</v>
       </c>
       <c r="N91">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>501</v>
       </c>
@@ -7614,10 +7872,13 @@
         <v>505</v>
       </c>
       <c r="N92">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>754</v>
       </c>
@@ -7658,10 +7919,13 @@
         <v>758</v>
       </c>
       <c r="N93">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>179</v>
       </c>
@@ -7702,10 +7966,13 @@
         <v>185</v>
       </c>
       <c r="N94">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>187</v>
       </c>
@@ -7746,10 +8013,13 @@
         <v>193</v>
       </c>
       <c r="N95">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>194</v>
       </c>
@@ -7790,10 +8060,13 @@
         <v>196</v>
       </c>
       <c r="N96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>296</v>
       </c>
@@ -7834,10 +8107,13 @@
         <v>301</v>
       </c>
       <c r="N97">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>872</v>
       </c>
@@ -7877,11 +8153,11 @@
       <c r="M98" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="N98">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O98" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>707</v>
       </c>
@@ -7922,10 +8198,13 @@
         <v>711</v>
       </c>
       <c r="N99">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>741</v>
       </c>
@@ -7966,10 +8245,13 @@
         <v>746</v>
       </c>
       <c r="N100">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>795</v>
       </c>
@@ -8010,10 +8292,13 @@
         <v>799</v>
       </c>
       <c r="N101">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>919</v>
       </c>
@@ -8054,10 +8339,13 @@
         <v>924</v>
       </c>
       <c r="N102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>785</v>
       </c>
@@ -8098,10 +8386,13 @@
         <v>790</v>
       </c>
       <c r="N103">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>128</v>
       </c>
@@ -8142,10 +8433,13 @@
         <v>133</v>
       </c>
       <c r="N104">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>603</v>
       </c>
@@ -8186,10 +8480,13 @@
         <v>608</v>
       </c>
       <c r="N105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>845</v>
       </c>
@@ -8230,10 +8527,13 @@
         <v>850</v>
       </c>
       <c r="N106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O106" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>536</v>
       </c>
@@ -8274,10 +8574,13 @@
         <v>541</v>
       </c>
       <c r="N107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>542</v>
       </c>
@@ -8318,10 +8621,13 @@
         <v>545</v>
       </c>
       <c r="N108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="O108" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>152</v>
       </c>
@@ -8362,10 +8668,13 @@
         <v>157</v>
       </c>
       <c r="N109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -8406,10 +8715,13 @@
         <v>282</v>
       </c>
       <c r="N110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+      <c r="O110" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>341</v>
       </c>
@@ -8450,10 +8762,13 @@
         <v>346</v>
       </c>
       <c r="N111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>736</v>
       </c>
@@ -8494,10 +8809,13 @@
         <v>347</v>
       </c>
       <c r="N112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="O112" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>40</v>
       </c>
@@ -8538,10 +8856,13 @@
         <v>45</v>
       </c>
       <c r="N113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>86</v>
       </c>
@@ -8582,10 +8903,13 @@
         <v>91</v>
       </c>
       <c r="N114">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="O114" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1014</v>
       </c>
@@ -8626,10 +8950,13 @@
         <v>1018</v>
       </c>
       <c r="N115">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>665</v>
       </c>
@@ -8670,10 +8997,13 @@
         <v>670</v>
       </c>
       <c r="N116">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="O116" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>258</v>
       </c>
@@ -8714,10 +9044,13 @@
         <v>264</v>
       </c>
       <c r="N117">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>800</v>
       </c>
@@ -8758,10 +9091,13 @@
         <v>804</v>
       </c>
       <c r="N118">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="O118" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>303</v>
       </c>
@@ -8802,10 +9138,13 @@
         <v>310</v>
       </c>
       <c r="N119">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+      <c r="O119" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>111</v>
       </c>
@@ -8846,10 +9185,13 @@
         <v>117</v>
       </c>
       <c r="N120">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+      <c r="O120" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>171</v>
       </c>
@@ -8890,10 +9232,13 @@
         <v>177</v>
       </c>
       <c r="N121">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="O121" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>547</v>
       </c>
@@ -8934,10 +9279,13 @@
         <v>553</v>
       </c>
       <c r="N122">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>578</v>
       </c>
@@ -8978,10 +9326,13 @@
         <v>583</v>
       </c>
       <c r="N123">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="O123" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>819</v>
       </c>
@@ -9022,10 +9373,13 @@
         <v>824</v>
       </c>
       <c r="N124">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="O124" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>203</v>
       </c>
@@ -9066,10 +9420,13 @@
         <v>208</v>
       </c>
       <c r="N125">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+        <v>561</v>
+      </c>
+      <c r="O125" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>644</v>
       </c>
@@ -9110,10 +9467,13 @@
         <v>648</v>
       </c>
       <c r="N126">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="O126" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>197</v>
       </c>
@@ -9154,10 +9514,13 @@
         <v>202</v>
       </c>
       <c r="N127">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+      <c r="O127" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>239</v>
       </c>
@@ -9198,10 +9561,13 @@
         <v>244</v>
       </c>
       <c r="N128">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="O128" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>507</v>
       </c>
@@ -9242,10 +9608,13 @@
         <v>511</v>
       </c>
       <c r="N129">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="O129" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>584</v>
       </c>
@@ -9286,10 +9655,13 @@
         <v>588</v>
       </c>
       <c r="N130">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+      <c r="O130" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>649</v>
       </c>
@@ -9330,10 +9702,13 @@
         <v>653</v>
       </c>
       <c r="N131">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+      <c r="O131" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>701</v>
       </c>
@@ -9374,10 +9749,13 @@
         <v>706</v>
       </c>
       <c r="N132">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>939</v>
       </c>
@@ -9418,10 +9796,13 @@
         <v>942</v>
       </c>
       <c r="N133">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>975</v>
       </c>
@@ -9462,10 +9843,13 @@
         <v>981</v>
       </c>
       <c r="N134">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>48</v>
       </c>
@@ -9506,10 +9890,13 @@
         <v>55</v>
       </c>
       <c r="N135">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>989</v>
       </c>
@@ -9550,10 +9937,13 @@
         <v>993</v>
       </c>
       <c r="N136">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>163</v>
       </c>
@@ -9594,10 +9984,13 @@
         <v>169</v>
       </c>
       <c r="N137">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>290</v>
       </c>
@@ -9638,10 +10031,13 @@
         <v>295</v>
       </c>
       <c r="N138">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>335</v>
       </c>
@@ -9682,10 +10078,13 @@
         <v>340</v>
       </c>
       <c r="N139">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>948</v>
       </c>
@@ -9726,10 +10125,13 @@
         <v>954</v>
       </c>
       <c r="N140">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>393</v>
       </c>
@@ -9770,10 +10172,13 @@
         <v>397</v>
       </c>
       <c r="N141">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>329</v>
       </c>
@@ -9814,10 +10219,13 @@
         <v>334</v>
       </c>
       <c r="N142">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>623</v>
       </c>
@@ -9858,10 +10266,13 @@
         <v>628</v>
       </c>
       <c r="N143">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>730</v>
       </c>
@@ -9902,10 +10313,13 @@
         <v>735</v>
       </c>
       <c r="N144">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>831</v>
       </c>
@@ -9946,10 +10360,13 @@
         <v>835</v>
       </c>
       <c r="N145">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>56</v>
       </c>
@@ -9990,10 +10407,13 @@
         <v>63</v>
       </c>
       <c r="N146">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>1001</v>
       </c>
@@ -10034,10 +10454,13 @@
         <v>1007</v>
       </c>
       <c r="N147">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>1020</v>
       </c>
@@ -10078,10 +10501,13 @@
         <v>1025</v>
       </c>
       <c r="N148">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>469</v>
       </c>
@@ -10122,10 +10548,13 @@
         <v>474</v>
       </c>
       <c r="N149">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>982</v>
       </c>
@@ -10166,10 +10595,13 @@
         <v>988</v>
       </c>
       <c r="N150">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>892</v>
       </c>
@@ -10210,10 +10642,13 @@
         <v>898</v>
       </c>
       <c r="N151">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>1041</v>
       </c>
@@ -10250,10 +10685,13 @@
       </c>
       <c r="M152" s="2"/>
       <c r="N152">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>1036</v>
       </c>
@@ -10290,7 +10728,10 @@
         <v>1040</v>
       </c>
       <c r="N153">
-        <v>100</v>
+        <v>713</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>

--- a/byhand/dvg_reo.xlsx
+++ b/byhand/dvg_reo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37134A68-6207-4E81-B2D8-185652BD1D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35816A64-FBAC-44E6-B2FA-D721BC726624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3558,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A63A6F5-31AB-4798-A958-181B73F691FF}">
   <dimension ref="A1:O153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,6 +4128,9 @@
       <c r="M12" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="N12">
+        <v>310</v>
+      </c>
       <c r="O12" s="2" t="s">
         <v>527</v>
       </c>
@@ -4496,6 +4499,9 @@
       <c r="M20" s="2" t="s">
         <v>682</v>
       </c>
+      <c r="N20">
+        <v>419</v>
+      </c>
       <c r="O20" s="2" t="s">
         <v>680</v>
       </c>
@@ -7078,6 +7084,9 @@
       <c r="M75" s="2" t="s">
         <v>1031</v>
       </c>
+      <c r="N75">
+        <v>80</v>
+      </c>
       <c r="O75" s="2" t="s">
         <v>1028</v>
       </c>
@@ -7122,6 +7131,9 @@
       <c r="M76" s="2" t="s">
         <v>1035</v>
       </c>
+      <c r="N76">
+        <v>88</v>
+      </c>
       <c r="O76" s="2" t="s">
         <v>1033</v>
       </c>
@@ -8152,6 +8164,9 @@
       </c>
       <c r="M98" s="2" t="s">
         <v>877</v>
+      </c>
+      <c r="N98">
+        <v>200</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>874</v>
